--- a/section2_unstacked_test_00.xlsx
+++ b/section2_unstacked_test_00.xlsx
@@ -543,67 +543,67 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>96.23381956399334</v>
+        <v>96.23381956399328</v>
       </c>
       <c r="C4">
-        <v>81.8062491964817</v>
+        <v>81.80624919648167</v>
       </c>
       <c r="D4">
-        <v>57.95983609323591</v>
+        <v>15.00951636493331</v>
       </c>
       <c r="E4">
-        <v>0.3977186361734928</v>
+        <v>0.844030753087252</v>
       </c>
       <c r="F4">
-        <v>38.27398347075742</v>
+        <v>81.22430319905997</v>
       </c>
       <c r="G4">
-        <v>0.2914986732367063</v>
+        <v>0.8165235967623505</v>
       </c>
       <c r="H4">
-        <v>23.84641310324579</v>
+        <v>66.79673283154837</v>
       </c>
       <c r="I4">
-        <v>943.8915653966817</v>
+        <v>943.8915653966814</v>
       </c>
       <c r="J4">
-        <v>985.1307563908987</v>
+        <v>985.130756390893</v>
       </c>
       <c r="K4">
-        <v>685.1164009679203</v>
+        <v>686.7079645964709</v>
       </c>
       <c r="L4">
-        <v>0.2741577252255751</v>
+        <v>0.2724715531196913</v>
       </c>
       <c r="M4">
-        <v>258.7751644287614</v>
+        <v>257.1836008002105</v>
       </c>
       <c r="N4">
-        <v>0.3045426746415915</v>
+        <v>0.3029270884686601</v>
       </c>
       <c r="O4">
-        <v>300.0143554229784</v>
+        <v>298.4227917944221</v>
       </c>
       <c r="P4">
         <v>1040.125384960675</v>
       </c>
       <c r="Q4">
-        <v>1066.937005587381</v>
+        <v>1066.937005587375</v>
       </c>
       <c r="R4">
-        <v>743.0762370611565</v>
+        <v>701.7174809614042</v>
       </c>
       <c r="S4">
-        <v>0.2855897492692666</v>
+        <v>0.3253529900263564</v>
       </c>
       <c r="T4">
-        <v>297.0491478995186</v>
+        <v>338.4079039992706</v>
       </c>
       <c r="U4">
-        <v>0.303542539840887</v>
+        <v>0.3423065492277196</v>
       </c>
       <c r="V4">
-        <v>323.8607685262241</v>
+        <v>365.2195246259704</v>
       </c>
     </row>
     <row r="5" spans="1:22">
@@ -611,67 +611,67 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>96.12529891720372</v>
+        <v>96.12529891720375</v>
       </c>
       <c r="C5">
-        <v>79.12354941251918</v>
+        <v>79.12354941251915</v>
       </c>
       <c r="D5">
-        <v>59.15994708363458</v>
+        <v>13.65271719957322</v>
       </c>
       <c r="E5">
-        <v>0.3845538297405844</v>
+        <v>0.8579695735320125</v>
       </c>
       <c r="F5">
-        <v>36.96535183356914</v>
+        <v>82.47258171763053</v>
       </c>
       <c r="G5">
-        <v>0.2523092363412844</v>
+        <v>0.8274506477408728</v>
       </c>
       <c r="H5">
-        <v>19.9636023288846</v>
+        <v>65.47083221294594</v>
       </c>
       <c r="I5">
-        <v>789.9575629732951</v>
+        <v>789.9575629732961</v>
       </c>
       <c r="J5">
-        <v>824.059237420669</v>
+        <v>824.0592374206674</v>
       </c>
       <c r="K5">
-        <v>562.0502637707502</v>
+        <v>562.684786934218</v>
       </c>
       <c r="L5">
-        <v>0.2885057500364098</v>
+        <v>0.2877025130105134</v>
       </c>
       <c r="M5">
-        <v>227.9072992025449</v>
+        <v>227.2727760390782</v>
       </c>
       <c r="N5">
-        <v>0.3179491980091321</v>
+        <v>0.3171792009814247</v>
       </c>
       <c r="O5">
-        <v>262.0089736499187</v>
+        <v>261.3744504864494</v>
       </c>
       <c r="P5">
-        <v>886.0828618904986</v>
+        <v>886.0828618905001</v>
       </c>
       <c r="Q5">
-        <v>903.1827868331882</v>
+        <v>903.1827868331864</v>
       </c>
       <c r="R5">
-        <v>621.2102108543849</v>
+        <v>576.3375041337912</v>
       </c>
       <c r="S5">
-        <v>0.2989253741698555</v>
+        <v>0.3495670338277984</v>
       </c>
       <c r="T5">
-        <v>264.8726510361138</v>
+        <v>309.7453577567089</v>
       </c>
       <c r="U5">
-        <v>0.3121987930787279</v>
+        <v>0.3618816561433893</v>
       </c>
       <c r="V5">
-        <v>281.9725759788033</v>
+        <v>326.8452826993952</v>
       </c>
     </row>
     <row r="6" spans="1:22">
@@ -682,64 +682,64 @@
         <v>152.5418108442664</v>
       </c>
       <c r="C6">
-        <v>144.9965297782084</v>
+        <v>144.9965297782085</v>
       </c>
       <c r="D6">
-        <v>92.36092346354795</v>
+        <v>30.95017763152521</v>
       </c>
       <c r="E6">
-        <v>0.394520604204434</v>
+        <v>0.7971036435176255</v>
       </c>
       <c r="F6">
-        <v>60.18088738071847</v>
+        <v>121.5916332127412</v>
       </c>
       <c r="G6">
-        <v>0.3630128693091736</v>
+        <v>0.7865453905768116</v>
       </c>
       <c r="H6">
-        <v>52.63560631466049</v>
+        <v>114.0463521466833</v>
       </c>
       <c r="I6">
-        <v>500.2607314334901</v>
+        <v>500.2607314334909</v>
       </c>
       <c r="J6">
-        <v>529.432913210586</v>
+        <v>529.432913210587</v>
       </c>
       <c r="K6">
-        <v>318.3299415918974</v>
+        <v>319.7370473057332</v>
       </c>
       <c r="L6">
-        <v>0.363671938271614</v>
+        <v>0.3608591935858514</v>
       </c>
       <c r="M6">
-        <v>181.9307898415927</v>
+        <v>180.5236841277577</v>
       </c>
       <c r="N6">
-        <v>0.3987341291997099</v>
+        <v>0.396076369021367</v>
       </c>
       <c r="O6">
-        <v>211.1029716186886</v>
+        <v>209.6958659048538</v>
       </c>
       <c r="P6">
-        <v>652.8025422777565</v>
+        <v>652.8025422777573</v>
       </c>
       <c r="Q6">
-        <v>674.4294429887944</v>
+        <v>674.4294429887955</v>
       </c>
       <c r="R6">
-        <v>410.6908650554453</v>
+        <v>350.6872249372583</v>
       </c>
       <c r="S6">
-        <v>0.3708804141257415</v>
+        <v>0.4627973970296727</v>
       </c>
       <c r="T6">
-        <v>242.1116772223112</v>
+        <v>302.115317340499</v>
       </c>
       <c r="U6">
-        <v>0.3910543655457389</v>
+        <v>0.4800238504073072</v>
       </c>
       <c r="V6">
-        <v>263.7385779333491</v>
+        <v>323.7422180515371</v>
       </c>
     </row>
     <row r="7" spans="1:22">
@@ -747,67 +747,67 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>214.9262726499172</v>
+        <v>214.9262726499173</v>
       </c>
       <c r="C7">
-        <v>228.5168868284275</v>
+        <v>228.5168868284276</v>
       </c>
       <c r="D7">
-        <v>126.4394001983061</v>
+        <v>51.07869189723746</v>
       </c>
       <c r="E7">
-        <v>0.4117080306684655</v>
+        <v>0.7623431920748145</v>
       </c>
       <c r="F7">
-        <v>88.48687245161109</v>
+        <v>163.8475807526798</v>
       </c>
       <c r="G7">
-        <v>0.4466955945656744</v>
+        <v>0.7764773859553418</v>
       </c>
       <c r="H7">
-        <v>102.0774866301214</v>
+        <v>177.4381949311901</v>
       </c>
       <c r="I7">
-        <v>257.8227238566043</v>
+        <v>257.8227238566042</v>
       </c>
       <c r="J7">
         <v>276.5416845871897</v>
       </c>
       <c r="K7">
-        <v>143.4130496558901</v>
+        <v>144.0103229520047</v>
       </c>
       <c r="L7">
-        <v>0.4437532599506104</v>
+        <v>0.441436655396984</v>
       </c>
       <c r="M7">
-        <v>114.4096742007142</v>
+        <v>113.8124009045995</v>
       </c>
       <c r="N7">
-        <v>0.4814053083173649</v>
+        <v>0.4792455135037689</v>
       </c>
       <c r="O7">
-        <v>133.1286349312996</v>
+        <v>132.531361635185</v>
       </c>
       <c r="P7">
-        <v>472.7489965065217</v>
+        <v>472.7489965065215</v>
       </c>
       <c r="Q7">
-        <v>505.0585714156172</v>
+        <v>505.0585714156173</v>
       </c>
       <c r="R7">
-        <v>269.8524498541963</v>
+        <v>195.0890148492421</v>
       </c>
       <c r="S7">
-        <v>0.4291845104943049</v>
+        <v>0.5873306632253191</v>
       </c>
       <c r="T7">
-        <v>202.8965466523254</v>
+        <v>277.6599816572793</v>
       </c>
       <c r="U7">
-        <v>0.4657006827983674</v>
+        <v>0.613729919873587</v>
       </c>
       <c r="V7">
-        <v>235.206121561421</v>
+        <v>309.9695565663752</v>
       </c>
     </row>
     <row r="8" spans="1:22">
@@ -815,67 +815,67 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>242.7989340288029</v>
+        <v>242.7989340288034</v>
       </c>
       <c r="C8">
-        <v>264.5618033262749</v>
+        <v>264.5618033262751</v>
       </c>
       <c r="D8">
-        <v>147.9600701559974</v>
+        <v>75.93245625037289</v>
       </c>
       <c r="E8">
-        <v>0.3906065908079929</v>
+        <v>0.6872619867376972</v>
       </c>
       <c r="F8">
-        <v>94.83886387280546</v>
+        <v>166.8664777784305</v>
       </c>
       <c r="G8">
-        <v>0.4407353280188998</v>
+        <v>0.7129878338607786</v>
       </c>
       <c r="H8">
-        <v>116.6017331702774</v>
+        <v>188.6293470759022</v>
       </c>
       <c r="I8">
-        <v>177.4462167238518</v>
+        <v>177.4462167238513</v>
       </c>
       <c r="J8">
-        <v>193.6950345477341</v>
+        <v>193.6950345477342</v>
       </c>
       <c r="K8">
-        <v>97.54011795836828</v>
+        <v>98.93387591379086</v>
       </c>
       <c r="L8">
-        <v>0.4503116507118112</v>
+        <v>0.4424571132572771</v>
       </c>
       <c r="M8">
-        <v>79.90609876548351</v>
+        <v>78.51234081006039</v>
       </c>
       <c r="N8">
-        <v>0.496424272382003</v>
+        <v>0.4892286415870429</v>
       </c>
       <c r="O8">
-        <v>96.15491658936585</v>
+        <v>94.76115863394337</v>
       </c>
       <c r="P8">
         <v>420.2451507526548</v>
       </c>
       <c r="Q8">
-        <v>458.256837874009</v>
+        <v>458.2568378740093</v>
       </c>
       <c r="R8">
-        <v>245.5001881143657</v>
+        <v>174.8663321641637</v>
       </c>
       <c r="S8">
-        <v>0.4158167258451944</v>
+        <v>0.5838944676673129</v>
       </c>
       <c r="T8">
-        <v>174.744962638289</v>
+        <v>245.378818588491</v>
       </c>
       <c r="U8">
-        <v>0.4642738136689574</v>
+        <v>0.6184097699983682</v>
       </c>
       <c r="V8">
-        <v>212.7566497596432</v>
+        <v>283.3905057098456</v>
       </c>
     </row>
     <row r="9" spans="1:22">
@@ -883,67 +883,67 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>264.2605271786159</v>
+        <v>264.2605271786161</v>
       </c>
       <c r="C9">
-        <v>294.8023795897351</v>
+        <v>294.8023795897349</v>
       </c>
       <c r="D9">
-        <v>155.0838120729152</v>
+        <v>81.55386189270254</v>
       </c>
       <c r="E9">
-        <v>0.4131404575300317</v>
+        <v>0.6913884083884403</v>
       </c>
       <c r="F9">
-        <v>109.1767151057008</v>
+        <v>182.7066652859136</v>
       </c>
       <c r="G9">
-        <v>0.4739397548665001</v>
+        <v>0.7233609104302418</v>
       </c>
       <c r="H9">
-        <v>139.7185675168199</v>
+        <v>213.2485176970323</v>
       </c>
       <c r="I9">
-        <v>88.23608646764592</v>
+        <v>88.23608646764596</v>
       </c>
       <c r="J9">
         <v>100.1464858775033</v>
       </c>
       <c r="K9">
-        <v>37.8305021170714</v>
+        <v>38.41333718142357</v>
       </c>
       <c r="L9">
-        <v>0.571258159427289</v>
+        <v>0.5646527546809454</v>
       </c>
       <c r="M9">
-        <v>50.40558435057452</v>
+        <v>49.82274928622239</v>
       </c>
       <c r="N9">
-        <v>0.6222483316754146</v>
+        <v>0.6164285062542305</v>
       </c>
       <c r="O9">
-        <v>62.31598376043188</v>
+        <v>61.73314869607977</v>
       </c>
       <c r="P9">
-        <v>352.4966136462618</v>
+        <v>352.4966136462621</v>
       </c>
       <c r="Q9">
-        <v>394.9488654672384</v>
+        <v>394.9488654672382</v>
       </c>
       <c r="R9">
-        <v>192.9143141899865</v>
+        <v>119.9671990741261</v>
       </c>
       <c r="S9">
-        <v>0.4527200922741903</v>
+        <v>0.6596642508613835</v>
       </c>
       <c r="T9">
-        <v>159.5822994562753</v>
+        <v>232.529414572136</v>
       </c>
       <c r="U9">
-        <v>0.5115460986025062</v>
+        <v>0.6962462496703193</v>
       </c>
       <c r="V9">
-        <v>202.0345512772519</v>
+        <v>274.9816663931121</v>
       </c>
     </row>
     <row r="10" spans="1:22">
@@ -951,67 +951,67 @@
         <v>17</v>
       </c>
       <c r="B10">
-        <v>318.5612844654974</v>
+        <v>318.561284465498</v>
       </c>
       <c r="C10">
         <v>357.4387051376262</v>
       </c>
       <c r="D10">
-        <v>186.9048178182048</v>
+        <v>93.19110914727598</v>
       </c>
       <c r="E10">
-        <v>0.4132845799771124</v>
+        <v>0.7074625395749586</v>
       </c>
       <c r="F10">
-        <v>131.6564666472925</v>
+        <v>225.370175318222</v>
       </c>
       <c r="G10">
-        <v>0.477099667350686</v>
+        <v>0.7392808674388125</v>
       </c>
       <c r="H10">
-        <v>170.5338873194214</v>
+        <v>264.2475959903502</v>
       </c>
       <c r="I10">
-        <v>46.65007077603841</v>
+        <v>46.65007077603845</v>
       </c>
       <c r="J10">
-        <v>52.17807355588671</v>
+        <v>52.17807355588672</v>
       </c>
       <c r="K10">
-        <v>31.73781286404138</v>
+        <v>33.25885276478985</v>
       </c>
       <c r="L10">
-        <v>0.3196620640424975</v>
+        <v>0.2870567565811052</v>
       </c>
       <c r="M10">
-        <v>14.91225791199703</v>
+        <v>13.3912180112486</v>
       </c>
       <c r="N10">
-        <v>0.3917404246431645</v>
+        <v>0.3625894844667451</v>
       </c>
       <c r="O10">
-        <v>20.44026069184533</v>
+        <v>18.91922079109687</v>
       </c>
       <c r="P10">
-        <v>365.2113552415357</v>
+        <v>365.2113552415365</v>
       </c>
       <c r="Q10">
         <v>409.616778693513</v>
       </c>
       <c r="R10">
-        <v>218.6426306822462</v>
+        <v>126.4499619120658</v>
       </c>
       <c r="S10">
-        <v>0.4013257596066667</v>
+        <v>0.6537622390507635</v>
       </c>
       <c r="T10">
-        <v>146.5687245592895</v>
+        <v>238.7613933294707</v>
       </c>
       <c r="U10">
-        <v>0.4662263802288215</v>
+        <v>0.6912969182674049</v>
       </c>
       <c r="V10">
-        <v>190.9741480112668</v>
+        <v>283.1668167814472</v>
       </c>
     </row>
     <row r="11" spans="1:22">
@@ -1019,25 +1019,25 @@
         <v>18</v>
       </c>
       <c r="B11">
-        <v>511.0465130553018</v>
+        <v>511.0465130553034</v>
       </c>
       <c r="C11">
-        <v>605.4171879454135</v>
+        <v>605.4171879454133</v>
       </c>
       <c r="D11">
-        <v>289.9395643897362</v>
+        <v>133.5353084905559</v>
       </c>
       <c r="E11">
-        <v>0.4326552339505718</v>
+        <v>0.7387022412261225</v>
       </c>
       <c r="F11">
-        <v>221.1069486655655</v>
+        <v>377.5112045647475</v>
       </c>
       <c r="G11">
-        <v>0.5210912901668755</v>
+        <v>0.7794325778167435</v>
       </c>
       <c r="H11">
-        <v>315.4776235556773</v>
+        <v>471.8818794548574</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -1046,40 +1046,40 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.0004006013685629064</v>
+        <v>0.001137650021364222</v>
       </c>
       <c r="L11" t="s">
         <v>19</v>
       </c>
       <c r="M11">
-        <v>-0.0004006013685629064</v>
+        <v>-0.001137650021364222</v>
       </c>
       <c r="N11" t="s">
         <v>19</v>
       </c>
       <c r="O11">
-        <v>-0.0004006013685629064</v>
+        <v>-0.001137650021364222</v>
       </c>
       <c r="P11">
-        <v>511.0465130553018</v>
+        <v>511.0465130553034</v>
       </c>
       <c r="Q11">
-        <v>605.4171879454135</v>
+        <v>605.4171879454133</v>
       </c>
       <c r="R11">
-        <v>289.9399649911048</v>
+        <v>133.5364461405773</v>
       </c>
       <c r="S11">
-        <v>0.4326544500662124</v>
+        <v>0.7387000151077707</v>
       </c>
       <c r="T11">
-        <v>221.106548064197</v>
+        <v>377.5100669147261</v>
       </c>
       <c r="U11">
-        <v>0.5210906284721359</v>
+        <v>0.7794306986992622</v>
       </c>
       <c r="V11">
-        <v>315.4772229543087</v>
+        <v>471.880741804836</v>
       </c>
     </row>
   </sheetData>
